--- a/ESERCIZIO_M2-1-2_dati Risolto. Marco Sanna (pulito).xlsx
+++ b/ESERCIZIO_M2-1-2_dati Risolto. Marco Sanna (pulito).xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{2052B6A4-8D0A-499D-B334-1455BB8D44B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11436" yWindow="204" windowWidth="11604" windowHeight="12036" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parcheggio" sheetId="1" r:id="rId1"/>
